--- a/Parte2/use_cases/Definir Ementa Semanal.xlsx
+++ b/Parte2/use_cases/Definir Ementa Semanal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\LI4\Parte2\use_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E545AF15-5423-4312-9A20-0964FBC42E91}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA52B5C2-1000-48FF-83ED-3DB228D3ED73}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Use Case:</t>
   </si>
@@ -36,16 +36,10 @@
     <t>Actor:</t>
   </si>
   <si>
-    <t>Utilizador</t>
-  </si>
-  <si>
     <t>Pré condição:</t>
   </si>
   <si>
     <t>Pós condição:</t>
-  </si>
-  <si>
-    <t>Ementa concluída</t>
   </si>
   <si>
     <t>Cenário 
@@ -64,28 +58,31 @@
     <t>2. Seleciona dia para o qual quer adicionar receitas</t>
   </si>
   <si>
-    <t>3. Seleciona a refeição para a qual quer adicionar receita</t>
-  </si>
-  <si>
-    <t>4. Apresenta lista de receitas</t>
-  </si>
-  <si>
-    <t>5. Seleciona receita</t>
-  </si>
-  <si>
-    <t>6. Regista alteração</t>
-  </si>
-  <si>
-    <t>8. Confirma ementa</t>
-  </si>
-  <si>
-    <t>7. Gera lista de compras das receitas selecionadas e apresenta</t>
-  </si>
-  <si>
-    <t>Alternativa 1 [pretende saber onde comprar ingredientes] (Passo 7)</t>
-  </si>
-  <si>
-    <t>7.1 &lt;&lt;include&gt;&gt; Apresenta sugestões de locais para os adquirir</t>
+    <t>Utilizador autenticado</t>
+  </si>
+  <si>
+    <t>Ementa semanal concluída</t>
+  </si>
+  <si>
+    <t>3. Apresenta lista de receitas</t>
+  </si>
+  <si>
+    <t>4. Seleciona receita</t>
+  </si>
+  <si>
+    <t>5. Regista alteração</t>
+  </si>
+  <si>
+    <t>6. Gera lista de compras das receitas selecionadas e apresenta</t>
+  </si>
+  <si>
+    <t>7. Confirma alteração à ementa</t>
+  </si>
+  <si>
+    <t>Alternativa 1 [pretende saber onde comprar ingredientes] (Passo 6)</t>
+  </si>
+  <si>
+    <t>6.1 &lt;&lt;include&gt;&gt; Apresenta sugestões de locais para os adquirir</t>
   </si>
 </sst>
 </file>
@@ -101,11 +98,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -275,19 +271,16 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -300,6 +293,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -685,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D17"/>
+  <dimension ref="B2:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -700,134 +696,127 @@
     <col min="5" max="1025" width="11.75"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="7" t="s">
+    </row>
+    <row r="8" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="2:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="8" t="s">
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
+    </row>
+    <row r="10" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="8" t="s">
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9" t="s">
+    </row>
+    <row r="12" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="2"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9" t="s">
+    <row r="13" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="2:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="2"/>
-      <c r="C14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="2:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="1" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="1"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="11"/>
+    </row>
+    <row r="15" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="11"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="B6:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
